--- a/REGULAR/OJT/ARCILLA, MAYETTE A..xlsx
+++ b/REGULAR/OJT/ARCILLA, MAYETTE A..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB3B71-E6F4-4DB9-B139-0C65FA3C2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB1B37-FC35-43B0-9A2E-13AF40C9E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2992,7 +2992,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3151,7 +3151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38.75</v>
+        <v>40</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3161,7 +3161,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.75</v>
+        <v>54</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4203,13 +4203,15 @@
         <v>44958</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4220,7 +4222,9 @@
       <c r="A60" s="40">
         <v>44986</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
@@ -4232,7 +4236,9 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="49">
+        <v>44988</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">

--- a/REGULAR/OJT/ARCILLA, MAYETTE A..xlsx
+++ b/REGULAR/OJT/ARCILLA, MAYETTE A..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB1B37-FC35-43B0-9A2E-13AF40C9E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DC4E4C-390F-4F7B-BC6E-3DFE41938334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2990,9 +2990,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A53" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3001,11 +3001,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -3151,7 +3151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40</v>
+        <v>43.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3161,7 +3161,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54</v>
+        <v>57.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4225,13 +4225,15 @@
       <c r="B60" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4245,13 +4247,15 @@
         <v>45017</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4263,13 +4267,15 @@
         <v>45047</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4277,8 +4283,12 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -4290,7 +4300,9 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="49">
+        <v>45099</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
@@ -5383,8 +5395,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>

--- a/REGULAR/OJT/ARCILLA, MAYETTE A..xlsx
+++ b/REGULAR/OJT/ARCILLA, MAYETTE A..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,10 +216,13 @@
     <t>10/31 , 11/3/2023</t>
   </si>
   <si>
-    <t>11/31 , 11/3/03</t>
+    <t>2024</t>
   </si>
   <si>
-    <t>12/31 , 11/3/03</t>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>PARENTAL 01/19/2024</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1131,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1195,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1255,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1321,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1384,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1482,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1541,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1606,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1649,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1724,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1910,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1976,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2034,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2100,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2156,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2231,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2274,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2340,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2396,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2494,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2557,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2623,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2998,12 +3001,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A53" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3165,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>46.75</v>
+        <v>47.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3172,7 +3175,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.75</v>
+        <v>66.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4384,15 +4387,17 @@
       <c r="B67" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39">
         <v>2</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -4406,13 +4411,15 @@
         <v>45231</v>
       </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4423,14 +4430,20 @@
       <c r="A69" s="40">
         <v>45261</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="39"/>
+      <c r="B69" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39">
+        <v>3</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4438,7 +4451,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4454,8 +4469,12 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
@@ -4467,10 +4486,14 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45323</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4486,7 +4509,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45352</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4502,7 +4527,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45383</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4518,7 +4545,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45413</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4534,7 +4563,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>45444</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4550,7 +4581,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>45474</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4566,7 +4599,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45505</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4582,7 +4617,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45536</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4598,7 +4635,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45566</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4614,7 +4653,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45597</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4630,7 +4671,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45627</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5366,20 +5409,36 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="43"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="43"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="15"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="43"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
